--- a/yield_prediction/results/graph_descriptors/WLsigmoidarctangent_2/out_of_sample/additive/ranking_test4/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidarctangent_2/out_of_sample/additive/ranking_test4/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2.164</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>45.381</v>
+        <v>18.335</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.106</v>
+        <v>0.643</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>38.762</v>
+        <v>15.966</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-3.889</v>
+        <v>0.669</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>60.57</v>
+        <v>15.758</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>23.73774207494884</v>
+        <v>-2.105361110067438</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>31.64243793224995</v>
+        <v>19.25191040755884</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>34.07636419560343</v>
+        <v>25.46503928839442</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>22.65401427420887</v>
+        <v>-0.7473421976551258</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>31.20702883894261</v>
+        <v>14.95828407300098</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>33.88339103152486</v>
+        <v>21.00278610565261</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>28.59018231304529</v>
+        <v>8.799689169978427</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>35.66459644947862</v>
+        <v>21.66243781793373</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>37.90307895554785</v>
+        <v>26.49060986843418</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>33.50998858198285</v>
+        <v>23.39599423812477</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>41.94196889126532</v>
+        <v>29.85083329178884</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>45.01293890189365</v>
+        <v>34.48854807411348</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>30.59606257070501</v>
+        <v>3.603248498566966</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>43.95639162167929</v>
+        <v>22.49604658287208</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>47.97538523872855</v>
+        <v>29.39564844444709</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>24.21582215604943</v>
+        <v>-0.1127178235532043</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>32.03078365227235</v>
+        <v>24.88673203531984</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>34.4327161599087</v>
+        <v>33.56869406646733</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>23.07255993067506</v>
+        <v>-3.22075970223867</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>31.52937163326674</v>
+        <v>16.59004290398807</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>34.17029568291845</v>
+        <v>25.06203616624504</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>28.92745133566712</v>
+        <v>9.254032081539734</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>35.92267727523014</v>
+        <v>25.39061720899667</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>24.41535440160398</v>
+        <v>5.236456362531541</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>32.33706454476172</v>
+        <v>28.78581665130579</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>34.77140795157958</v>
+        <v>34.67763366596564</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>23.37930746003197</v>
+        <v>9.270223913112117</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>31.95075758282827</v>
+        <v>27.1508781912127</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>34.62752854136241</v>
+        <v>32.76457106474572</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>29.34197112923598</v>
+        <v>19.61087648565951</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>36.43175309154381</v>
+        <v>34.3673354625144</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>38.67054414049171</v>
+        <v>38.82595542452604</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>34.2589798591271</v>
+        <v>37.72551128761937</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>42.70755417832359</v>
+        <v>44.74402073172308</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>45.77947065770987</v>
+        <v>49.2580044401253</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>31.32068613660814</v>
+        <v>16.02733407555411</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>44.70929143764246</v>
+        <v>37.44738847841855</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>48.72910656902643</v>
+        <v>43.86441113142079</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>24.88389354774993</v>
+        <v>10.30503788928602</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>32.71567459745925</v>
+        <v>37.75682889998319</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>35.11804289276972</v>
+        <v>46.23715847785525</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>23.78758371248855</v>
+        <v>10.32890304810084</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>32.26262243560733</v>
+        <v>32.57992126334248</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>34.90397602639435</v>
+        <v>40.75032757574634</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>36.67902624322108</v>
+        <v>42.06012724078763</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>24.606198327613</v>
+        <v>4.652468157068746</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>32.52517194918831</v>
+        <v>28.59811444534834</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>34.95744370798674</v>
+        <v>34.53554430289834</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>23.58204210624242</v>
+        <v>9.616443197872712</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>32.15053769627952</v>
+        <v>27.9600771808474</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>34.8250187855885</v>
+        <v>33.61300055438601</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>29.54608460579188</v>
+        <v>19.87513035533279</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>36.63344932632745</v>
+        <v>35.04119229469165</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>38.8703182494197</v>
+        <v>39.53835941311117</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>34.45854755509338</v>
+        <v>38.68645572785199</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>42.90379529972243</v>
+        <v>45.79622121069709</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>45.97322698851952</v>
+        <v>50.38942582066915</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>31.51690277767645</v>
+        <v>16.66844627719798</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>44.9007629916875</v>
+        <v>38.6227733610793</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>48.91717782465632</v>
+        <v>45.08536497111798</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>25.07224773403941</v>
+        <v>10.26372036897805</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>32.90132305758996</v>
+        <v>38.1522473515904</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>35.30165133649937</v>
+        <v>46.69762229118103</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>23.98771655771642</v>
+        <v>11.33717745598083</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>32.4598337735553</v>
+        <v>34.0915770023273</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>35.09893261597715</v>
+        <v>42.32266793335378</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>29.87010131042361</v>
+        <v>24.74161811052603</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>36.87813131371251</v>
+        <v>43.4427144111379</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>24.07514594425366</v>
+        <v>1.342979312153343</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>31.99892688276182</v>
+        <v>24.15266062921112</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>34.43441765858776</v>
+        <v>30.69963506608284</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>23.01166780670929</v>
+        <v>5.463942642210885</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>31.58527650973639</v>
+        <v>22.66037166986511</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>34.26335172704914</v>
+        <v>29.02996037809329</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>28.97253445323229</v>
+        <v>15.02075094156675</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>36.06402448940629</v>
+        <v>29.18011908866017</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>38.303923315308</v>
+        <v>34.29493983229933</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>33.89799419919817</v>
+        <v>31.54643797200392</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>42.3495340705487</v>
+        <v>38.3771527584302</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>45.42257545235598</v>
+        <v>43.37315355493332</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>30.9669961318738</v>
+        <v>10.57665140033004</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>44.35933030783811</v>
+        <v>31.20494858795689</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>48.38092612179291</v>
+        <v>38.47562397235721</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>24.54957650937503</v>
+        <v>5.099195994736398</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>32.38341748566052</v>
+        <v>31.74692444846801</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>34.78689870066217</v>
+        <v>40.84611320060316</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>23.42619487521231</v>
+        <v>4.926782300227767</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>31.90338114961305</v>
+        <v>26.4366152994549</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>34.54600125621155</v>
+        <v>35.32290639735177</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>29.30548597452846</v>
+        <v>17.51975974638434</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>36.31760668752563</v>
+        <v>35.13228339387993</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>38.13130991795995</v>
+        <v>32.25087492632987</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>33.75825316992035</v>
+        <v>28.76976243380644</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>42.10281039620216</v>
+        <v>37.76850705941375</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>45.13116722046318</v>
+        <v>44.18256210500414</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>30.87906423532419</v>
+        <v>6.256111725678384</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>44.08769524248456</v>
+        <v>30.2988464070184</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>48.0540688652213</v>
+        <v>39.57216434349645</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>32.26309145717802</v>
+        <v>1.648256422997729</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>40.10730223018697</v>
+        <v>28.48425560560507</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>42.50273795827896</v>
+        <v>37.47579514465231</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>31.59377606802642</v>
+        <v>-0.8175680404907766</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>40.0840037423961</v>
+        <v>21.10191170275154</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>42.71719046676212</v>
+        <v>29.8436782735208</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>37.6944711663852</v>
+        <v>14.03363725570224</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>44.71903308090884</v>
+        <v>32.02082302118102</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>46.92137871132464</v>
+        <v>39.13313574384945</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>42.48179232817274</v>
+        <v>38.66524376209375</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>50.86147902247765</v>
+        <v>48.57716188405153</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>53.89169022372599</v>
+        <v>55.21981509865808</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>39.45028803317898</v>
+        <v>13.87869311473807</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>52.69375057046782</v>
+        <v>40.3724772888544</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>56.65145093552162</v>
+        <v>50.01604062280757</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>38.88798445756639</v>
+        <v>48.66396860290553</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>34.49661560127615</v>
+        <v>47.11731088671394</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>42.85758894580788</v>
+        <v>56.7158399767756</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>45.88690773602973</v>
+        <v>63.04333015433463</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>31.5933965611189</v>
+        <v>22.60265096860979</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>44.82998074454998</v>
+        <v>49.49779554386461</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>48.79720734252577</v>
+        <v>58.41316481760303</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>32.94502015120252</v>
+        <v>15.20436025825711</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>40.80597087596495</v>
+        <v>44.55830978927246</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>43.20177646497024</v>
+        <v>53.24799594339471</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>32.32337941430416</v>
+        <v>16.16090130246577</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>40.83174038047633</v>
+        <v>40.58340894319227</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>43.46528358773014</v>
+        <v>48.91805977658746</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>38.4505352021304</v>
+        <v>32.12804110331744</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>45.4902126586597</v>
+        <v>52.2944581416868</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>47.69282696294586</v>
+        <v>59.0591930455174</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>43.23495236943717</v>
+        <v>60.68127983450627</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>51.63096649968769</v>
+        <v>71.16525813078492</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>54.66203454265174</v>
+        <v>77.67566531739938</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>40.17923908526843</v>
+        <v>33.79929906474574</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>53.45051449206248</v>
+        <v>63.21318980803046</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>57.40894586085059</v>
+        <v>72.38727834368139</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>39.08519685968361</v>
+        <v>50.10436282295291</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>34.69363947992768</v>
+        <v>48.72341469229859</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>43.05132011820957</v>
+        <v>58.40238909551277</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>46.0781932230831</v>
+        <v>64.82431133818274</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>31.7871199481892</v>
+        <v>23.92270927193056</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>45.01901255295529</v>
+        <v>51.39938113960275</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>33.12945124014944</v>
+        <v>16.46330298380231</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>40.98765485508503</v>
+        <v>46.26534679781111</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>43.38141518884189</v>
+        <v>54.99199845432636</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>32.51932545892915</v>
+        <v>18.54762395933754</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>41.0247169130198</v>
+        <v>43.48258288486197</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>43.65599968587659</v>
+        <v>51.84928623041026</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>38.64769771550171</v>
+        <v>34.46704595614888</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>45.6849435770857</v>
+        <v>55.08881235908653</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>47.88566118557144</v>
+        <v>61.88651138949466</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>43.42765120618031</v>
+        <v>63.69410062750677</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>51.82032387750232</v>
+        <v>74.24811993584642</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>54.84892509464066</v>
+        <v>80.83896495668078</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>40.3687405237247</v>
+        <v>36.4890517281438</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>53.63526477501027</v>
+        <v>66.49376363514274</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>57.59033480197213</v>
+        <v>75.70431508919485</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>38.52764105332271</v>
+        <v>42.35541046285869</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>34.14180260537934</v>
+        <v>38.97216705934706</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>42.50572849629496</v>
+        <v>48.38227737309643</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>45.53612869282406</v>
+        <v>55.22383931419584</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>31.24572699468349</v>
+        <v>15.29681569754795</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>44.4860174679531</v>
+        <v>41.32277613979761</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>48.45496963645479</v>
+        <v>51.05599284155795</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>32.60782090808301</v>
+        <v>10.40792808221851</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>40.47084313702741</v>
+        <v>38.97039691956333</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>42.86784593542221</v>
+        <v>48.31624438119236</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>31.95918714672845</v>
+        <v>11.04632137989475</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>40.46971749901535</v>
+        <v>34.74669696009144</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>43.10461269071411</v>
+        <v>43.83687213481304</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>38.08456369174279</v>
+        <v>26.1487766222594</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>45.12596174295324</v>
+        <v>45.68486025093988</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>47.32972162242414</v>
+        <v>53.10373763719149</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>42.87738705342412</v>
+        <v>52.8218254825935</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>51.27637163803858</v>
+        <v>63.15579938986176</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>54.30865448783651</v>
+        <v>70.19539898085654</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>39.82891332552925</v>
+        <v>26.70701042170728</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>53.10390588926855</v>
+        <v>55.27517967015594</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>57.06420320110327</v>
+        <v>65.3081678613563</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>-29.60060747338676</v>
+        <v>12.74912224845851</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>-21.42781102527265</v>
+        <v>35.94276530506222</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>-18.96316162666899</v>
+        <v>41.42172048908139</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>-32.67252560633939</v>
+        <v>13.87755126118542</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>-23.82485880860199</v>
+        <v>31.67370425898217</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>-21.11515427240406</v>
+        <v>36.97228882989687</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>-27.79017127071899</v>
+        <v>25.38811112611162</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>-20.47048330379874</v>
+        <v>40.09450331604799</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>-18.2047565742005</v>
+        <v>44.25157615497818</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>-21.5463916000886</v>
+        <v>41.43683202025572</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>-12.81857715787578</v>
+        <v>48.56513525123923</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>-9.719040949201329</v>
+        <v>52.50313352142415</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>-23.04916520020782</v>
+        <v>19.45497892598623</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>-9.233871502300303</v>
+        <v>40.626743820402</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>-5.166052431629538</v>
+        <v>46.64791021013454</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>-28.62327009583804</v>
+        <v>12.90721551676763</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>-20.54365379173714</v>
+        <v>39.76123503835446</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>-18.11132234732264</v>
+        <v>47.56661360679878</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>-31.73688791517456</v>
+        <v>9.383378467872225</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>-22.98924535747001</v>
+        <v>31.27335158429206</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>-20.31529181169651</v>
+        <v>38.87523259236426</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>-26.92733677425774</v>
+        <v>23.96084098551949</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>-19.69002382394783</v>
+        <v>41.94606719904572</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>-28.97017633640577</v>
+        <v>19.0619775717357</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>-20.77998159519757</v>
+        <v>44.47261316140424</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>-18.31492981036148</v>
+        <v>49.5933182712858</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>-31.99606991938023</v>
+        <v>22.71480013372232</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>-23.12955147348529</v>
+        <v>42.7113388662988</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>-20.41945384148222</v>
+        <v>47.54656384138281</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>-27.0881503090914</v>
+        <v>35.03792750940183</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>-19.75274535341464</v>
+        <v>51.6623883244505</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>-17.48672472252285</v>
+        <v>55.42047494499008</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>-20.84594777736785</v>
+        <v>54.59697421116888</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>-12.10111481191998</v>
+        <v>62.30387659068057</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>-9.000648989061546</v>
+        <v>66.0917045522875</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>-22.3718863837337</v>
+        <v>30.68974612434064</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>-8.527683278329178</v>
+        <v>54.41579097250045</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>-4.459062046298101</v>
+        <v>59.91528773048722</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>-28.00190629564572</v>
+        <v>22.24000232580995</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>-19.90509190833772</v>
+        <v>51.56163901231974</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>-17.47233727783541</v>
+        <v>59.12211373033928</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>-31.07021504998913</v>
+        <v>21.69189204577478</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>-22.30393522997655</v>
+        <v>46.03817122016712</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>-19.62956542210684</v>
+        <v>53.30140561105953</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>-26.23545694554915</v>
+        <v>37.29425313470061</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>-18.9826053188517</v>
+        <v>57.41385928388037</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>-28.74530523204852</v>
+        <v>17.97625246191353</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>-20.55799844482036</v>
+        <v>43.76374674000989</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>-18.09504660019189</v>
+        <v>48.91919812122661</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>-31.7580297014526</v>
+        <v>22.52562653658161</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>-22.89463385032278</v>
+        <v>42.96251887757801</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>-20.18685694494148</v>
+        <v>47.82711367350898</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>-26.84805590123193</v>
+        <v>34.74083453717201</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>-19.51520797611416</v>
+        <v>51.75590629409334</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>-17.25113479912508</v>
+        <v>55.54347569441153</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>-20.61124620828821</v>
+        <v>54.99182110032571</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>-11.86991061642696</v>
+        <v>62.78385094147296</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>-8.771952558133918</v>
+        <v>66.64625596873235</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>-22.14146772382631</v>
+        <v>30.78032950074724</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>-8.302268828148812</v>
+        <v>55.01592392237879</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>-4.237093911939724</v>
+        <v>60.54909233439892</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>-27.77983146030263</v>
+        <v>21.7041936599446</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>-19.68587258524929</v>
+        <v>51.44163788827403</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>-17.25518540973241</v>
+        <v>59.05532600553727</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>-30.83509438190566</v>
+        <v>22.17361891701538</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>-22.07190223949804</v>
+        <v>46.99959193312783</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>-19.39981714077305</v>
+        <v>54.31297284978977</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>-25.99830394355978</v>
+        <v>37.67772056342602</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>-18.7479809850829</v>
+        <v>58.22376283691854</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>-29.36382484875224</v>
+        <v>15.31419128303105</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>-21.17151458044096</v>
+        <v>39.9583595484971</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>-18.70516970543856</v>
+        <v>45.7217946194981</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>-32.4193921671564</v>
+        <v>19.13278144176058</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>-23.55066275601669</v>
+        <v>38.41655363851844</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>-20.8391049186541</v>
+        <v>43.99236043832857</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>-27.51428644817037</v>
+        <v>30.62513668615622</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>-20.17713501218513</v>
+        <v>46.62772330184721</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>-17.90987407216635</v>
+        <v>51.02771841437783</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>-21.26235130540968</v>
+        <v>48.6240313352405</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>-12.51450896228486</v>
+        <v>56.12936472925518</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>-9.412763231497308</v>
+        <v>60.39785827442925</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>-22.77954787998789</v>
+        <v>25.45697758457461</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>-8.931516563920027</v>
+        <v>48.36089278895186</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>-4.860888843040883</v>
+        <v>54.69731105854785</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>-28.38919288035483</v>
+        <v>17.15637483810834</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>-20.29027468059236</v>
+        <v>45.65238328859297</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>-17.85626290965133</v>
+        <v>53.82187310024166</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>-31.48679290506406</v>
+        <v>16.49214410453597</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>-22.71831408429031</v>
+        <v>40.07384546930447</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>-20.0425234660494</v>
+        <v>48.03963923162701</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>-26.65477472699288</v>
+        <v>31.16171836198646</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>-19.40018514458812</v>
+        <v>50.6189675705992</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>-17.45439329764635</v>
+        <v>48.02437073078239</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>-20.78514923960046</v>
+        <v>45.22657460118801</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>-12.14841363134491</v>
+        <v>54.89584834277676</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>-9.092371352221036</v>
+        <v>60.424649320884</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>-22.26493647480821</v>
+        <v>20.81450900600094</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>-8.60721439560713</v>
+        <v>47.12797814944354</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>-4.592505279930521</v>
+        <v>55.37580879452265</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>-19.1861628233307</v>
+        <v>13.90055834640968</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>-11.08451489449718</v>
+        <v>42.68248936112482</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>-8.659597306297798</v>
+        <v>50.79719460461605</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>-21.76812537922868</v>
+        <v>10.68032367438904</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>-12.99477361594889</v>
+        <v>34.77978783761654</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>-10.32985658883858</v>
+        <v>42.66091843430426</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>-16.67701081980631</v>
+        <v>27.66299659167257</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>-9.416731720722836</v>
+        <v>47.5911746747187</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>-7.188500898714395</v>
+        <v>53.92643472339608</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>-10.6045182429952</v>
+        <v>53.797587496647</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>-1.941406290577845</v>
+        <v>64.39960267405485</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>1.118348395571971</v>
+        <v>70.1221305874916</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>-12.26864767159039</v>
+        <v>27.12716289335544</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>1.4117531333779</v>
+        <v>56.00725318009331</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>5.416004774911599</v>
+        <v>64.62637000010396</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>-16.74666182050937</v>
+        <v>63.20169734915163</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>-20.09485627895333</v>
+        <v>62.35836578937375</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>-11.44128600640006</v>
+        <v>72.64162160488807</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>-8.384296432784282</v>
+        <v>78.05257738131891</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>-21.5974834416282</v>
+        <v>35.9386333149047</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>-7.911183506165202</v>
+        <v>65.12080018401379</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>-3.895637343216805</v>
+        <v>72.96597782481679</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>-18.54996905798757</v>
+        <v>26.32951414594807</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>-10.43121572730037</v>
+        <v>57.64725705583162</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>-8.005949805915051</v>
+        <v>65.41405378894865</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>-21.08586646905383</v>
+        <v>26.38415905663771</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>-12.29398600310748</v>
+        <v>53.00519862715041</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>-9.628735582884644</v>
+        <v>60.43943144666638</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>-15.96918258359094</v>
+        <v>44.49995371857661</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>-8.693455809400575</v>
+        <v>66.62601926833318</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>-6.464977240594607</v>
+        <v>72.57725920002198</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>-9.898396309654785</v>
+        <v>74.5526257016033</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>-1.218553334310045</v>
+        <v>85.74162212283896</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>1.842035242606983</v>
+        <v>91.30185019014891</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>-11.58554971280446</v>
+        <v>45.78653916729358</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>2.123264130312137</v>
+        <v>77.60663169756609</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>6.128216662470294</v>
+        <v>85.70762577488678</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>-16.51395472967153</v>
+        <v>64.0595283546329</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>-19.86301482904261</v>
+        <v>63.40717619973022</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>-11.21290637713551</v>
+        <v>73.76547402147368</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>-8.158384115356185</v>
+        <v>79.26557362427506</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>-21.36986736560119</v>
+        <v>36.71516719013737</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>-7.688515082811705</v>
+        <v>66.4527689125058</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>-3.676361536222245</v>
+        <v>74.3534396041773</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>-18.33276211059763</v>
+        <v>27.08107993428574</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>-10.21690109940768</v>
+        <v>58.82856553119697</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>-7.793709574351922</v>
+        <v>66.61772359042118</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>-20.85591933722898</v>
+        <v>28.23985025772659</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>-12.06716989095645</v>
+        <v>55.35237110675504</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>-9.404211424450835</v>
+        <v>62.80495426730145</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>-15.73737128247008</v>
+        <v>46.27892811330406</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>-8.464210357864474</v>
+        <v>68.84271658665102</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>-6.237654420493925</v>
+        <v>74.81437541053842</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>-9.671867377493186</v>
+        <v>77.00429606536223</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>-0.995528926477121</v>
+        <v>88.25937297188162</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>2.062566973131155</v>
+        <v>93.89404109118088</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>-11.3631153761086</v>
+        <v>47.93049264792215</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>2.340697927899527</v>
+        <v>80.31874081422342</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>6.342242252207775</v>
+        <v>88.44001426428618</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>-17.16303431914467</v>
+        <v>57.01356952520348</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>-20.50459535951862</v>
+        <v>54.39343647679928</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>-11.84802953476668</v>
+        <v>64.4776674694878</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>-8.789805414181387</v>
+        <v>70.40059428915258</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>-21.99864327291115</v>
+        <v>28.81377948763478</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>-8.308539390856922</v>
+        <v>57.10201811558814</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>-4.291044404486684</v>
+        <v>65.75124958532129</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>-18.93849333329591</v>
+        <v>21.66015736538758</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>-10.81762215472428</v>
+        <v>52.17114980093991</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>-8.391015680719576</v>
+        <v>60.58150604527661</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>-21.50352733017284</v>
+        <v>21.48183083992961</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>-12.70942338916241</v>
+        <v>47.36410076427703</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>-10.04266763915575</v>
+        <v>55.53711898140665</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>-16.38959244043963</v>
+        <v>38.68333234142881</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>-9.112104986786321</v>
+        <v>60.16480168553149</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>-6.882350681628324</v>
+        <v>66.75485003205466</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>-10.30916440058773</v>
+        <v>66.89418438720558</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>-1.626303892815073</v>
+        <v>77.92575035056727</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>1.435653459546231</v>
+        <v>84.00816484632554</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>-11.98768831605236</v>
+        <v>38.89212728549273</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>1.724943607292857</v>
+        <v>69.84974946737265</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>5.731984884057631</v>
+        <v>78.7925754741316</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>-21.94249855125661</v>
+        <v>-5.528639850020127</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>-14.0317207615158</v>
+        <v>15.48249188077195</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>-11.5842549266409</v>
+        <v>21.6750251273456</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>-24.7746399097319</v>
+        <v>-4.676434155482681</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>-16.21569113795633</v>
+        <v>10.56050123223948</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>-13.52515836238886</v>
+        <v>16.57358977774248</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>-19.85001834209109</v>
+        <v>4.798372707201306</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>-12.77044883419281</v>
+        <v>17.24727653069267</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>-10.5197990591795</v>
+        <v>22.03537125403855</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>-13.79429975699125</v>
+        <v>19.10669796843575</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>-5.358971904766321</v>
+        <v>25.29700952546021</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>-2.27252061189381</v>
+        <v>29.97734077881074</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>-15.29858832015665</v>
+        <v>-0.3810785812265323</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>-1.930387079050902</v>
+        <v>18.01522797807607</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>2.109210413506744</v>
+        <v>24.8792727785404</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>-21.01281710254372</v>
+        <v>-6.441464253952763</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>-13.19161394597855</v>
+        <v>18.17905619192501</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>-10.77595486498863</v>
+        <v>26.94089889548354</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>-23.88753356628335</v>
+        <v>-10.28345832433464</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>-15.42460860669361</v>
+        <v>9.031364407934481</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>-12.76930981822197</v>
+        <v>17.58460829738469</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>-19.03420664450441</v>
+        <v>2.033309015911531</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>-12.03367773255083</v>
+        <v>17.72885286925855</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>-21.3098108769223</v>
+        <v>1.430926650261934</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>-13.38201637812394</v>
+        <v>24.64918176782829</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>-10.93408707428429</v>
+        <v>30.52611743181859</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>-24.09596697013478</v>
+        <v>4.99314090023492</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>-15.51858015751111</v>
+        <v>22.41844188360011</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>-12.82758895852557</v>
+        <v>28.00622470257489</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>-19.14578506617261</v>
+        <v>15.25527493280516</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>-12.05084605481713</v>
+        <v>29.60930121695466</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>-9.799845930515062</v>
+        <v>34.03291058351981</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>-13.09170679607081</v>
+        <v>33.13468488165125</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>-4.639781058212009</v>
+        <v>39.89398698712119</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>-1.552334008758066</v>
+        <v>44.45111984263579</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>-14.61900387230318</v>
+        <v>11.73385622195923</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>-1.222523712405376</v>
+        <v>32.67334862945977</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>2.817968753560415</v>
+        <v>39.05961211122029</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>-20.38921370075791</v>
+        <v>3.666399270463373</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>-12.55118857182912</v>
+        <v>30.75808311566968</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>-10.13504716029473</v>
+        <v>39.32863154701203</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>-23.21865502557792</v>
+        <v>2.995381095718066</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>-14.73750058012155</v>
+        <v>24.76820409538437</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>-12.08172237785509</v>
+        <v>33.03068402238292</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>-18.34012318421777</v>
+        <v>16.31291136761925</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>-11.32439811798137</v>
+        <v>34.14164220302014</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>-21.09064896145735</v>
+        <v>0.6786232314867142</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>-13.16559906081217</v>
+        <v>24.29739320913928</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>-10.71974038892057</v>
+        <v>30.22580806693747</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>-23.863812673345</v>
+        <v>5.180974132248242</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>-15.2893886431898</v>
+        <v>23.07407105690891</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>-12.6006860908338</v>
+        <v>28.70731095429549</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>-18.91161407299326</v>
+        <v>15.35472296130766</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>-11.81909945623954</v>
+        <v>30.12266079927738</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>-9.570020670163927</v>
+        <v>34.59031903934156</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>-12.86277435420229</v>
+        <v>33.94429277472572</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>-4.414182301276952</v>
+        <v>40.79654821025636</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>-1.329219772872193</v>
+        <v>45.43607918144514</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>-14.39430357602203</v>
+        <v>12.22012949442204</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>-1.0025802111671</v>
+        <v>33.69928595408405</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>3.034514545425687</v>
+        <v>40.13786435439681</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>-20.17281922886663</v>
+        <v>3.495515884911907</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>-12.33750798638789</v>
+        <v>31.02915900285093</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>-9.923405662558977</v>
+        <v>39.6715450777339</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>-22.98939048691165</v>
+        <v>3.8872245101403</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>-14.51116589339813</v>
+        <v>26.16934547846581</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>-11.85764131641436</v>
+        <v>34.49977623292325</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>-18.10886435386703</v>
+        <v>17.12777649117374</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>-11.0955369501482</v>
+        <v>35.40821885663873</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>-21.69161213231018</v>
+        <v>-2.433033289691075</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>-13.76174158954132</v>
+        <v>20.03749087506012</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>-11.31266931052896</v>
+        <v>26.57606407611437</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>-24.50679257803012</v>
+        <v>1.205968375396729</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>-15.92724232152328</v>
+        <v>17.9400182230204</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>-13.23495144932853</v>
+        <v>24.29078969856753</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>-19.5593622201505</v>
+        <v>10.67609530305312</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>-12.46271055731629</v>
+        <v>24.4273101934279</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>-10.21060644023444</v>
+        <v>29.51288757688098</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>-13.49581429429391</v>
+        <v>26.9369512760998</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>-5.040924005732805</v>
+        <v>33.50378303459206</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>-1.952358691765596</v>
+        <v>38.55034252465337</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>-15.01451966391032</v>
+        <v>6.268992736511823</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>-1.614303927151553</v>
+        <v>26.40846535129517</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>2.427963590298376</v>
+        <v>33.65746611041612</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>-20.76471913247839</v>
+        <v>-1.545594500126512</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>-12.92462829042553</v>
+        <v>24.73173040435042</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>-10.50737826587488</v>
+        <v>33.92747337064262</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>-23.6228102099045</v>
+        <v>-2.42470633585377</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>-15.13950276842058</v>
+        <v>18.59742710624318</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>-12.48246252743985</v>
+        <v>27.58258837281867</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>-18.74695464520811</v>
+        <v>9.997966682044311</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>-11.72952423050654</v>
+        <v>27.17673763654145</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>-9.812710287530976</v>
+        <v>24.64564819248807</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>-13.07891407519497</v>
+        <v>21.27634047434946</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>-4.73070992488789</v>
+        <v>30.01131570581893</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>-1.686688845288771</v>
+        <v>36.49368207722511</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>-14.56246730369062</v>
+        <v>-0.9130264378454633</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>-1.34569042813078</v>
+        <v>22.60320111045869</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>2.641613224383349</v>
+        <v>31.95606291043014</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>-11.84026930473881</v>
+        <v>-3.738978420746786</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>-3.991923000483609</v>
+        <v>22.84165752740912</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>-1.584832075806901</v>
+        <v>31.8714747860225</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>-14.19638340252368</v>
+        <v>-6.996584812445079</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>-5.70228239623151</v>
+        <v>14.56057260385288</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>-3.056898824311332</v>
+        <v>23.34186016430444</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>-9.073320845229361</v>
+        <v>7.802110439100833</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>-2.045307444087584</v>
+        <v>25.46566390762774</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>0.1675084803327849</v>
+        <v>32.59863319409691</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>-3.190126018950764</v>
+        <v>32.17295208879167</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>5.190521981224514</v>
+        <v>41.87166301677947</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>8.234618874996535</v>
+        <v>48.56876598784281</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>-4.860705641655031</v>
+        <v>7.630446981582537</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>8.387420252601046</v>
+        <v>33.74472546781863</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>12.36284838243193</v>
+        <v>43.42161459252726</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>-9.103063097377557</v>
+        <v>40.81149391332134</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>-12.38647698732508</v>
+        <v>39.40784807118763</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>-4.021852936205804</v>
+        <v>48.74952631757884</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>-0.976820434835119</v>
+        <v>55.14762665065187</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>-13.892714788643</v>
+        <v>15.20766695364735</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>-0.6479820508404259</v>
+        <v>41.59745980939059</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>3.340248293364425</v>
+        <v>50.60251862318934</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>-11.20169337029328</v>
+        <v>9.612193529903045</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>-3.336605127506843</v>
+        <v>38.73044417728607</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>-0.9290995359566949</v>
+        <v>47.46759624922521</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>-13.51177537217212</v>
+        <v>9.821349921060204</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>-4.999538927205521</v>
+        <v>33.89995717709314</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>-2.353750705454658</v>
+        <v>42.28383883918639</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>-8.363154014567939</v>
+        <v>25.73885185558969</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>-1.320023610468041</v>
+        <v>45.59746016389656</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>0.8931014581401939</v>
+        <v>52.39138955923775</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>-2.481748871279905</v>
+        <v>54.08903995131401</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>5.91523036043521</v>
+        <v>64.36431480504987</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>8.960232614857389</v>
+        <v>70.93172518418534</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>-4.175226873031349</v>
+        <v>27.43813579468395</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>9.100713661536702</v>
+        <v>56.49432651483812</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>13.07694443043044</v>
+        <v>65.71063879313678</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>-8.876093885528732</v>
+        <v>42.14220864352026</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>-12.16037556079804</v>
+        <v>40.90611448313892</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>-3.799051495108785</v>
+        <v>50.33039194730908</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>-0.7564645102598035</v>
+        <v>56.82668142499038</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>-13.67078621992269</v>
+        <v>16.41604233084545</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>-0.4307569031806366</v>
+        <v>43.39407138504566</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>3.554127942390274</v>
+        <v>52.47508514586668</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>-10.98991679770857</v>
+        <v>10.769237912979</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>-3.127582080411045</v>
+        <v>40.34103757687082</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>-0.7221195919658356</v>
+        <v>49.12154359526247</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>-13.28742254498199</v>
+        <v>12.12279966770918</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>-4.778162082233138</v>
+        <v>36.71996645752373</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>-2.134631854957448</v>
+        <v>45.14273200115779</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>-8.136967644303226</v>
+        <v>27.98747499630251</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>-1.096274498242565</v>
+        <v>48.30686984109811</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>1.114955699559218</v>
+        <v>55.13974313498105</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>-2.260694908208706</v>
+        <v>57.02632002403976</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>6.132937869575784</v>
+        <v>67.3734304829806</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>9.175474634430941</v>
+        <v>74.02499329643886</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>-3.958221195553648</v>
+        <v>30.04781594486035</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>9.312959120571797</v>
+        <v>59.70180149999227</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>13.2858329797526</v>
+        <v>68.96192419256187</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>-9.507116761223728</v>
+        <v>34.4713963780645</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>-12.78399318996335</v>
+        <v>31.20211264345109</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>-4.416416650152243</v>
+        <v>40.35061497369576</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>-1.370309273156764</v>
+        <v>47.26977062767394</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>-14.28180442573634</v>
+        <v>7.847421116884647</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>-1.033357858187742</v>
+        <v>33.35684636301879</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>2.956592611252319</v>
+        <v>43.18882480021389</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>-11.57907798026775</v>
+        <v>4.800534405526964</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>-3.711916017668273</v>
+        <v>33.11970696100124</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>-1.303219748579167</v>
+        <v>42.51869365278131</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>-13.91768952030436</v>
+        <v>4.681805545417141</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>-5.403282016108875</v>
+        <v>28.03186932713692</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>-2.756148758920062</v>
+        <v>37.17720930611895</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>-8.771771071614353</v>
+        <v>19.72117694330223</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>-1.726918199260467</v>
+        <v>38.94418222985044</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>0.487346681176632</v>
+        <v>46.39710084288244</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>-2.880975391413713</v>
+        <v>46.16165778344472</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>5.518969047082528</v>
+        <v>56.28513071960241</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>8.56517722744605</v>
+        <v>63.38795902562916</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>-4.565961560392452</v>
+        <v>20.28327989681005</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>8.713698126649774</v>
+        <v>48.48615184765829</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>12.69178548945762</v>
+        <v>58.56949913300146</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>19.13224631482012</v>
+        <v>-4.51091027155093</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>26.91244218458377</v>
+        <v>15.72368522775659</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>29.30595651242811</v>
+        <v>21.50330007824974</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>17.85850950189426</v>
+        <v>-3.854543035861109</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>26.27651992476774</v>
+        <v>10.91046451175139</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>28.90831675235163</v>
+        <v>16.52278326590714</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>23.58336825770951</v>
+        <v>5.387626993489473</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>30.54618602266144</v>
+        <v>17.46621208021806</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>32.74712085757459</v>
+        <v>21.92107631698632</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>28.54330644925605</v>
+        <v>19.22259015947473</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>36.84470272186134</v>
+        <v>25.20296138819568</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>39.8627851736909</v>
+        <v>29.54908622981222</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>25.82108160955234</v>
+        <v>0.3709072766087793</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>38.97214746134314</v>
+        <v>18.16930962654871</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>42.92393108671719</v>
+        <v>24.56529011272098</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>19.61107534802826</v>
+        <v>-4.243122284138128</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>27.30281311994938</v>
+        <v>19.47156974942999</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>29.66493126108765</v>
+        <v>27.68619423771991</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>18.27952237832422</v>
+        <v>-8.006187696100366</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>26.60268652212316</v>
+        <v>10.68249590878668</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>29.19970630035591</v>
+        <v>18.70627064651605</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>23.92408196775455</v>
+        <v>4.026544855468696</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>30.80882555727561</v>
+        <v>19.23389147408695</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>19.79416090743815</v>
+        <v>1.911367748408189</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>27.59111430930046</v>
+        <v>24.25364641718198</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>29.98505622526798</v>
+        <v>29.72750845360797</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>18.56711287195538</v>
+        <v>5.127963350720375</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>27.00328017236443</v>
+        <v>21.98282280532251</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>29.63549719930447</v>
+        <v>27.1858822672089</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>24.31793971806476</v>
+        <v>15.12122584554075</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>31.29589349431057</v>
+        <v>29.01946326320969</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>33.49714682505645</v>
+        <v>33.12333631402073</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>29.27522475556787</v>
+        <v>32.35827917718149</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>37.5929792474261</v>
+        <v>38.88329714465084</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>40.61201119255072</v>
+        <v>43.10842428787232</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>26.5291484731325</v>
+        <v>11.68028521925486</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>39.70806216940115</v>
+        <v>31.90710944675939</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>43.66068132744481</v>
+        <v>37.84266728688528</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>20.26360374871403</v>
+        <v>5.195903380063886</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>27.97190677938607</v>
+        <v>31.26964671546801</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>30.33447125560235</v>
+        <v>39.29611603554893</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>18.97802283117075</v>
+        <v>4.432242221589231</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>27.31913795641957</v>
+        <v>25.46769725619662</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>29.9165987988047</v>
+        <v>33.20992623673266</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>24.64819073926664</v>
+        <v>17.42209512536689</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>31.54789917740381</v>
+        <v>34.66637537887731</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>19.9853120692408</v>
+        <v>1.125234137115186</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>27.77957246716965</v>
+        <v>23.84636488228206</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>30.17148205980337</v>
+        <v>29.36830524483938</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>18.7700839282211</v>
+        <v>5.233358247064142</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>27.2033437450069</v>
+        <v>22.53070489704361</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>29.83331401906059</v>
+        <v>27.77636904192605</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>24.52234126840352</v>
+        <v>15.13853788797047</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>31.49791627583706</v>
+        <v>29.42845962235386</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>33.69728391138289</v>
+        <v>33.57360093412169</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>29.47507111181106</v>
+        <v>33.05152430918555</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>37.78955139256983</v>
+        <v>39.66418477787664</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>40.80614849939998</v>
+        <v>43.96762146047388</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>26.72559884038847</v>
+        <v>12.06814941629936</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>39.89984179704612</v>
+        <v>32.80559972117179</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>43.84912501007933</v>
+        <v>38.79010358487941</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>20.45229799470925</v>
+        <v>4.957309509160012</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>28.15793831303083</v>
+        <v>31.4490634191897</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>30.51850162152918</v>
+        <v>39.54287043635397</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>19.17842628168744</v>
+        <v>5.201710148499682</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>27.51666642507683</v>
+        <v>26.71896234898168</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>30.1119151000475</v>
+        <v>34.52514603132997</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>24.85000882324956</v>
+        <v>18.11412726754013</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>31.74736487250622</v>
+        <v>35.78588696838955</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>19.45459898242625</v>
+        <v>-1.736578613435761</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>27.25355574831383</v>
+        <v>19.887450488988</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>29.64864935789131</v>
+        <v>25.99043566277215</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>18.20035063300764</v>
+        <v>1.563912191824905</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>26.63860425936021</v>
+        <v>17.75402405221021</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>29.27212936946453</v>
+        <v>23.68235911870892</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>23.94931018400717</v>
+        <v>10.79553647628705</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>30.92891247570363</v>
+        <v>24.11412988178748</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>33.13127652181718</v>
+        <v>28.84704135946969</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>28.91501320058079</v>
+        <v>26.49377619254398</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>37.23564452341699</v>
+        <v>32.83282450766036</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>40.25581008616756</v>
+        <v>37.5245558844324</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>26.17624866952452</v>
+        <v>6.518101056344356</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>39.35877866766624</v>
+        <v>25.97579651554352</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>43.31318720059869</v>
+        <v>32.73175613450441</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>19.92983675070718</v>
+        <v>0.2479778676425042</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>27.64013294731802</v>
+        <v>25.54015754680979</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>30.00381494306652</v>
+        <v>34.16140042130043</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>18.6174107587733</v>
+        <v>-0.7029518939783479</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>26.96060190275017</v>
+        <v>19.61122260163717</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>29.55933337701821</v>
+        <v>28.04056361087974</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>24.28577561103997</v>
+        <v>11.42564937132065</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>31.18712536170604</v>
+        <v>28.04547748188239</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>32.98047228413719</v>
+        <v>25.70844800897251</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>28.7962429680554</v>
+        <v>22.61212680601566</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>37.01144148533411</v>
+        <v>31.03444896235598</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>39.98760258252978</v>
+        <v>37.07055039495667</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>26.10837472261845</v>
+        <v>1.191208934778334</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>39.10987929430649</v>
+        <v>23.91199137086496</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>43.01001710062301</v>
+        <v>32.66761421116992</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>27.76944931096528</v>
+        <v>-1.642217272765528</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>35.48920127871647</v>
+        <v>23.96138998183659</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>37.8445368236949</v>
+        <v>32.44033519567916</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>26.91395812788772</v>
+        <v>-4.893524321769569</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>35.26923847197125</v>
+        <v>15.9555493514465</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>37.85822512410142</v>
+        <v>24.20728674020721</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>32.80793845486993</v>
+        <v>9.515303274700416</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>39.72091833246596</v>
+        <v>26.61928522443124</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>41.88601148179234</v>
+        <v>33.30849630305267</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>37.63355968383971</v>
+        <v>32.96596537656803</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>45.88218949396938</v>
+        <v>42.31643668603728</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>48.86053812750213</v>
+        <v>48.55867711948051</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>34.79011963569708</v>
+        <v>9.304160022515083</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>47.82459379413216</v>
+        <v>34.5277956850796</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>51.71564509319197</v>
+        <v>43.60389487627805</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>33.71988152755511</v>
+        <v>40.90138011715789</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>29.51770359056228</v>
+        <v>39.67903208027817</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>37.74908431933498</v>
+        <v>48.68227966343002</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>40.72621064069446</v>
+        <v>54.6338104400764</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>26.80631621766313</v>
+        <v>16.33955017861292</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>39.83534977893376</v>
+        <v>41.80349914597625</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>43.73635462992776</v>
+        <v>50.22181275708166</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>28.43584722214973</v>
+        <v>10.88803543855315</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>36.1720848295348</v>
+        <v>38.91502166673289</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>38.52779954934679</v>
+        <v>47.10916373597857</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>27.62704863964652</v>
+        <v>10.92038115694134</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>36.00018623449982</v>
+        <v>34.17765782965633</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>38.58953974796152</v>
+        <v>42.04623947259039</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>33.5469701077982</v>
+        <v>26.39840113572781</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>40.47483600120941</v>
+        <v>45.59917617782257</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>42.64020675266343</v>
+        <v>51.96107878053979</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>38.36983090899029</v>
+        <v>53.64200953343932</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>46.63455477175937</v>
+        <v>63.54521576566407</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>49.61376306822586</v>
+        <v>69.65982845121719</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>35.50269294175414</v>
+        <v>27.96931619633914</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>48.5645552059722</v>
+        <v>56.0025281169971</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>52.45635044142892</v>
+        <v>64.63373468125887</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>33.91749053729571</v>
+        <v>42.08118578082807</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>29.71503956878681</v>
+        <v>41.02153613150056</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>37.94317935264755</v>
+        <v>50.102588828919</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>40.91790942541795</v>
+        <v>56.14744724698879</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>27.00030587018332</v>
+        <v>17.40828550757317</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>40.02472139098477</v>
+        <v>43.4288315506204</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>43.92244187988503</v>
+        <v>51.91852541980899</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>28.62053483858158</v>
+        <v>11.91327382307209</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>36.3540696724015</v>
+        <v>40.36983842206691</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>38.7077777733232</v>
+        <v>48.60372280621485</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>27.8231796270599</v>
+        <v>13.03310124465955</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>36.19339562248294</v>
+        <v>36.78154131693395</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>38.78053110734584</v>
+        <v>44.68586322405874</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>33.74436773286212</v>
+        <v>28.45628717522846</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>40.66984128224938</v>
+        <v>48.09366677176881</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>42.83335114323202</v>
+        <v>54.49142236426486</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>38.56275705314322</v>
+        <v>56.35591532909386</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>46.8241932708009</v>
+        <v>66.3269375629758</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>49.80098347932153</v>
+        <v>72.52136307914495</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>35.69237865020884</v>
+        <v>30.37363492957035</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>48.74956512127964</v>
+        <v>58.97322617675557</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>52.63806241862721</v>
+        <v>67.64459491213594</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>33.36018705227991</v>
+        <v>34.8743360201105</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>29.16356484297686</v>
+        <v>31.8842859299599</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>37.39781025966927</v>
+        <v>40.70112671846861</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>40.37602698593768</v>
+        <v>47.14935679600109</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>26.45933991840482</v>
+        <v>9.353120209100624</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>39.49196832031888</v>
+        <v>33.97143949173454</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>43.39470782387228</v>
+        <v>43.17650426510694</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>28.09949612008333</v>
+        <v>6.320065438304727</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>35.83773893588221</v>
+        <v>33.58086363132399</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>38.19465360816169</v>
+        <v>42.40400838931008</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>27.26393989741187</v>
+        <v>6.051580407864893</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>35.63917577553018</v>
+        <v>28.60958597956</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>38.2298834591837</v>
+        <v>37.20138885112765</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>33.18201881016237</v>
+        <v>20.68390108842425</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>40.11154665511209</v>
+        <v>39.27469101602637</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>42.27806457469258</v>
+        <v>46.2623161825146</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>38.01324886413043</v>
+        <v>46.1120510738325</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>46.28085583311361</v>
+        <v>55.86852987286913</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>49.26128565117302</v>
+        <v>62.49286354129863</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>35.15336068251662</v>
+        <v>21.17750536951406</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>48.21882957746268</v>
+        <v>48.39192224074105</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>52.11249680277183</v>
+        <v>57.84726806404397</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>37.38179919928615</v>
+        <v>0.7458987905477521</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>45.58428694613193</v>
+        <v>23.01177747985114</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>48.06329990224467</v>
+        <v>28.96348336949601</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>36.81991164615002</v>
+        <v>1.300014821196132</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>45.69903721075978</v>
+        <v>17.94845041894326</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>48.42570182376012</v>
+        <v>23.72413533759776</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>43.29150248525245</v>
+        <v>11.97556198603</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>50.63577336840513</v>
+        <v>25.63111719852493</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>52.91458360578267</v>
+        <v>30.19048777034104</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>47.9281269228661</v>
+        <v>27.02963887664941</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>56.68910384126262</v>
+        <v>33.75387788959829</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>59.81239872542903</v>
+        <v>38.05828836050587</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>44.31618508291608</v>
+        <v>5.998384953359423</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>58.1878927187212</v>
+        <v>25.95960166549729</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>62.28380851709558</v>
+        <v>32.50361500346293</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>37.6529640842444</v>
+        <v>-0.2358757071273665</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>45.76149283493577</v>
+        <v>25.67797788657775</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>48.2075889949208</v>
+        <v>34.09581200362425</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>37.02364075750084</v>
+        <v>-4.32491207847065</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>45.80190852085258</v>
+        <v>16.42051030399563</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>48.49213038677262</v>
+        <v>24.64977388969543</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>43.40490588589293</v>
+        <v>9.302282537939686</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>50.66614027708273</v>
+        <v>26.23091545586695</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>38.09587669759375</v>
+        <v>7.399769226772946</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>46.31603250876128</v>
+        <v>31.92178196217699</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>48.79541441134571</v>
+        <v>37.52907237942624</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>37.58370193630726</v>
+        <v>10.59893266596079</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>46.48197289076063</v>
+        <v>29.48627200569681</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>49.20899247105292</v>
+        <v>34.80913155132298</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>44.08289843511516</v>
+        <v>22.09181059583393</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>51.44313188470923</v>
+        <v>37.69801228066561</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>53.72220299494798</v>
+        <v>41.86819580833055</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>48.71618018070262</v>
+        <v>40.71531702215234</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>57.49442371929786</v>
+        <v>48.02659795090258</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>60.61861292138773</v>
+        <v>52.19420364632735</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>45.07857318387366</v>
+        <v>17.72397285522671</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>58.97963745811931</v>
+        <v>40.28712162136388</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>63.07630448457139</v>
+        <v>46.32084270351732</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>38.35696349036617</v>
+        <v>9.558986142374316</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>46.48295676282015</v>
+        <v>37.9890986264581</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>48.92944252912413</v>
+        <v>46.18354614671981</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>37.77659236186657</v>
+        <v>8.582421191416575</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>46.5737875290115</v>
+        <v>31.83329850464403</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>49.26438738187408</v>
+        <v>39.74237441947747</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>44.18507998418646</v>
+        <v>23.24513525449787</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>51.4620956648483</v>
+        <v>42.34952890633762</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>38.28348050643951</v>
+        <v>6.400533304242042</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>46.50079654268301</v>
+        <v>31.3169787983391</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>48.97805059260101</v>
+        <v>36.96721850065846</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>37.78319511256841</v>
+        <v>10.52557491992523</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>46.67839692960158</v>
+        <v>29.8731068734876</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>49.40306405622329</v>
+        <v>35.23317703200318</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>44.28358594993576</v>
+        <v>21.9169553372968</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>51.64130863742611</v>
+        <v>37.93116108063112</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>53.91840636728108</v>
+        <v>42.13803149955928</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>48.91243102903105</v>
+        <v>41.24860573567019</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>57.68721817333032</v>
+        <v>48.65017902820057</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>60.80886269110803</v>
+        <v>52.89885566576462</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>45.27174481861411</v>
+        <v>17.94182775883395</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>59.16787782426733</v>
+        <v>41.03704600475372</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>63.26105056951614</v>
+        <v>47.11347934768013</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>38.54213570242321</v>
+        <v>9.124127776370383</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>46.66532144713277</v>
+        <v>37.98859498265999</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>49.10971238237249</v>
+        <v>46.24641724016844</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>37.97354204776298</v>
+        <v>9.195884436428894</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>46.76770277238217</v>
+        <v>32.94727687867517</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>49.45598680707894</v>
+        <v>40.91640178708624</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>44.38321111038407</v>
+        <v>23.76804261238669</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>51.65774418580964</v>
+        <v>43.31714406725165</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>37.75778242920892</v>
+        <v>3.396034711610049</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>45.97999650586117</v>
+        <v>27.13617750229414</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>48.46064128792972</v>
+        <v>33.40621106364856</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>37.21766848948595</v>
+        <v>6.707732461614405</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>46.11808536504508</v>
+        <v>24.86812135178938</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>48.84653551612131</v>
+        <v>30.9544860913537</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>43.71539214296839</v>
+        <v>17.36628591424573</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>51.07731576228092</v>
+        <v>32.33823288570372</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>53.35760137736489</v>
+        <v>37.17039991459573</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>48.35699451206657</v>
+        <v>34.38682973158322</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>57.13820892444622</v>
+        <v>41.49523040056307</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>60.26365215202681</v>
+        <v>46.1542488939361</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>44.7263305149882</v>
+        <v>12.16609134494231</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>58.63113321566659</v>
+        <v>33.88913292294388</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>62.72976167434193</v>
+        <v>40.7864802653781</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>38.02473342287793</v>
+        <v>4.130341033761571</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>46.15277349204869</v>
+        <v>31.71305106095636</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>48.60048598504714</v>
+        <v>40.53532818280518</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>37.41679188741033</v>
+        <v>2.971649426924266</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>46.21612128405774</v>
+        <v>25.4366502362623</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>48.9081120360524</v>
+        <v>34.07024980132472</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>43.82386754387313</v>
+        <v>16.69346663986568</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>51.10256511626923</v>
+        <v>35.1172907078699</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>52.91428473956388</v>
+        <v>32.83493361881815</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>47.95616384903968</v>
+        <v>29.50715115467885</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>56.62515733345432</v>
+        <v>38.78452715683466</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>59.70423566360049</v>
+        <v>44.80777947194996</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>44.38941422543006</v>
+        <v>5.929034673946205</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>58.10215380261604</v>
+        <v>31.03512223721129</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>62.14387061598148</v>
+        <v>39.96218839255528</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>45.79173863237816</v>
+        <v>1.660308512626905</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>53.92976076275721</v>
+        <v>29.63103127120747</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>56.3717083835763</v>
+        <v>38.36408304689779</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>45.63988188899518</v>
+        <v>-1.982968367170603</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>54.45204662716432</v>
+        <v>21.11879192147975</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>57.13683702637921</v>
+        <v>29.6229867785518</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>52.27911775457981</v>
+        <v>14.12983334617168</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>59.57013802969244</v>
+        <v>33.1301767785862</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>61.81396331604524</v>
+        <v>39.98833401000687</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>56.79797490442903</v>
+        <v>39.45685556922352</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>65.50236522481703</v>
+        <v>49.75207607252749</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>68.58814210413925</v>
+        <v>56.01929346310295</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>53.08817798214511</v>
+        <v>13.54544953176782</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>66.83583436831653</v>
+        <v>41.37439428238494</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>70.87252082517358</v>
+        <v>50.67826246641793</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>53.71051992724529</v>
+        <v>48.67978615986779</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>48.73300618383419</v>
+        <v>47.31828261003048</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>57.41907969754048</v>
+        <v>57.21981390478297</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>60.49906985955791</v>
+        <v>63.14249821100985</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>45.14094756920272</v>
+        <v>21.68996446945742</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>58.88270649408658</v>
+        <v>49.72462493246648</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>62.92520923585336</v>
+        <v>58.26827078614663</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>46.5097419806738</v>
+        <v>14.64859005684182</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>54.66514071401773</v>
+        <v>45.20515302223973</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>57.10740625023591</v>
+        <v>53.60983654457515</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>46.40757020990367</v>
+        <v>14.42166049653509</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>55.23855882715701</v>
+        <v>40.0955462700616</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>57.92364779101482</v>
+        <v>48.16887155614103</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>53.07437216472835</v>
+        <v>31.68367183994452</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>60.38108679951289</v>
+        <v>52.92475840327722</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>62.62512973590803</v>
+        <v>59.41359523818653</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>57.58980385605682</v>
+        <v>61.00760213246978</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>66.31117606374944</v>
+        <v>71.89935759847407</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>69.39775340425864</v>
+        <v>78.0206058907395</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>53.85453845479226</v>
+        <v>32.95195279558094</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>67.63105820272249</v>
+        <v>63.78182641928673</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>71.66839884882799</v>
+        <v>72.58450650304702</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>53.90422578249981</v>
+        <v>49.70431864082012</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>48.92677292921752</v>
+        <v>48.52474303393606</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>57.60942563956794</v>
+        <v>58.50583965474277</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>60.68691219107053</v>
+        <v>64.52546469166069</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>45.33168106158585</v>
+        <v>22.61387928452599</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>59.06856498673659</v>
+        <v>51.22770106852312</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>63.10762812795521</v>
+        <v>59.83806355799639</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>46.69094386349843</v>
+        <v>15.53587225405092</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>54.84349266638009</v>
+        <v>46.53962834287704</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>57.28365474316979</v>
+        <v>54.9768438402411</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>46.60028511979498</v>
+        <v>16.44329502065273</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>55.42818977636476</v>
+        <v>42.62818734878732</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>58.11095377383447</v>
+        <v>50.72987440791145</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>53.26811530176965</v>
+        <v>33.63750527229566</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>60.57230497219375</v>
+        <v>55.33348050996405</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>62.81439826140322</v>
+        <v>61.85181145813564</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>57.77918590745644</v>
+        <v>63.65177237674015</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>66.49708804654446</v>
+        <v>74.61313703769788</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>69.58113463641921</v>
+        <v>80.81646130173461</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>54.04098874618453</v>
+        <v>35.27673097342719</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>67.81257176282875</v>
+        <v>66.69698031251832</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>71.84645411229955</v>
+        <v>75.53127608046864</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>53.35217068644401</v>
+        <v>42.07333826274937</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>48.37997277648061</v>
+        <v>38.88186865828102</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>57.06900300995094</v>
+        <v>48.58051988385085</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>60.15020136888678</v>
+        <v>55.02743775102056</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>44.7947101371104</v>
+        <v>14.13131853908638</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>58.54018362786934</v>
+        <v>41.24607380565854</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>62.58458968278068</v>
+        <v>50.61994428751517</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>46.17466562814594</v>
+        <v>9.654433324960969</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>54.332130777322</v>
+        <v>39.3811596612369</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>56.7757118035687</v>
+        <v>48.45002757436688</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>46.04500677476807</v>
+        <v>9.125274126289007</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>54.87816046233537</v>
+        <v>34.03775823209537</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>57.56473061065268</v>
+        <v>42.87411976567095</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>52.71035744292449</v>
+        <v>25.46455175325045</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>60.01878203789195</v>
+        <v>46.04143572372153</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>62.26407953870013</v>
+        <v>53.1899873672871</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>57.23407165292071</v>
+        <v>52.88843194960104</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>65.95843069553224</v>
+        <v>63.61889368763137</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>69.04635678294906</v>
+        <v>70.27664869882517</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>53.50570288162633</v>
+        <v>25.63513042450046</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>67.28596031807858</v>
+        <v>55.57522214627676</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>71.32535313864143</v>
+        <v>65.24833064958781</v>
       </c>
     </row>
   </sheetData>
